--- a/Projektleiter/Aufteilung.xlsx
+++ b/Projektleiter/Aufteilung.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Nemanja\Desktop\Uni\3 Semester\Softwareengineering\GitRepository MWfDD\Projektleiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E149B366-679D-4019-9AF3-6FB2E826FBE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABDF91D-C67E-4BF7-8571-543596B44123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Stefan</t>
   </si>
@@ -81,33 +89,6 @@
     <t>Codedokumentation</t>
   </si>
   <si>
-    <t>Ausformulierst</t>
-  </si>
-  <si>
-    <t>Ausformulieren helfen</t>
-  </si>
-  <si>
-    <t>Einarbeitung</t>
-  </si>
-  <si>
-    <t>Simo helfen</t>
-  </si>
-  <si>
-    <t>(Einarbeitung), Dokumention</t>
-  </si>
-  <si>
-    <t>BC, PM anfangen</t>
-  </si>
-  <si>
-    <t>(Simo helfen)</t>
-  </si>
-  <si>
-    <t>Einarbeitung, GUI Testen</t>
-  </si>
-  <si>
-    <t>BIS FREITAG:</t>
-  </si>
-  <si>
     <t>ABGABEDATUM</t>
   </si>
   <si>
@@ -130,16 +111,39 @@
   </si>
   <si>
     <t>Projektplan(PM)</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>CRS,SRS,BC,PM</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>SRS,SAS,PM</t>
+  </si>
+  <si>
+    <t>SRS,BC,CRS,SRS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,12 +158,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -170,8 +168,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,18 +182,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,10 +515,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -509,12 +528,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -526,10 +541,8 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -541,12 +554,8 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -558,12 +567,8 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -575,66 +580,98 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44153</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3">
-        <v>44153</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="D17" s="5">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
+      <c r="D19" s="5">
+        <v>44148</v>
       </c>
     </row>
   </sheetData>

--- a/Projektleiter/Aufteilung.xlsx
+++ b/Projektleiter/Aufteilung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Nemanja\Desktop\Uni\3 Semester\Softwareengineering\GitRepository MWfDD\Projektleiter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3 Semester\Softwareengineering\GitRepository MWfDD\Projektleiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABDF91D-C67E-4BF7-8571-543596B44123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F8EAD3-AAB1-4985-A9F5-792299BAA03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
